--- a/docs/data.xlsx
+++ b/docs/data.xlsx
@@ -2,19 +2,20 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="weapons" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="armor" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="accessories" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="armor_accessories" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="chalice_accessories" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="edible_accessories" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="monsters" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="starting_weapons" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="armor" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="accessories" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="armor_accessories" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="chalice_accessories" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="edible_accessories" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="monsters" sheetId="8" state="visible" r:id="rId9"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="58">
   <si>
     <t xml:space="preserve">Weapon</t>
   </si>
@@ -43,15 +44,42 @@
     <t xml:space="preserve">Tribe</t>
   </si>
   <si>
-    <t xml:space="preserve">Bastard Sword</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Piercing Sweep</t>
+    <t xml:space="preserve">Aura Racket</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aura Blast</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Selkie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Copper Sword</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Power Slash</t>
   </si>
   <si>
     <t xml:space="preserve">Clavat</t>
   </si>
   <si>
+    <t xml:space="preserve">Iron Lance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cyclone Slash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liltie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orc Hammer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Power Bomb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yuke</t>
+  </si>
+  <si>
     <t xml:space="preserve">Armor</t>
   </si>
   <si>
@@ -148,25 +176,31 @@
     <t xml:space="preserve">4 Extra Hearts per point of Unity. Clavat exclusive.</t>
   </si>
   <si>
+    <t xml:space="preserve">Accessory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Backpack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gain an accessory slot for each point of Unity. Only use these for Food and Edible Accessories.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Winged Belt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rolling a 2 also counts as a Crit.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crystal Feather</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If the pressure roll is less than or equal to your Luck stat, don't thicken the miasma.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Focus</t>
   </si>
   <si>
     <t xml:space="preserve">Racket</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aura Blast</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yuke</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Accessory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crystal Feather</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If the pressure roll is less than or equal to your Luck stat, don't thicken the miasma.</t>
   </si>
 </sst>
 </file>
@@ -181,6 +215,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -240,8 +275,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -254,6 +297,15 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="00FFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
@@ -262,45 +314,102 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G14" activeCellId="0" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="14.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="16.89"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="0" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="C2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -319,144 +428,119 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B27" activeCellId="0" sqref="B27"/>
+      <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="89.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="14.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="13.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="16.89"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="str">
+        <f aca="false">LOOKUP(A2,weapons!A:A,weapons!B:B)</f>
+        <v>Power Slash</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <f aca="false">LOOKUP(A2,weapons!A:A,weapons!C:C)</f>
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <f aca="false">LOOKUP(A2,weapons!A:A,weapons!D:D)</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="1" t="str">
+        <f aca="false">LOOKUP(A2,weapons!A:A,weapons!E:E)</f>
+        <v>Clavat</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>13</v>
+      <c r="B3" s="1" t="str">
+        <f aca="false">LOOKUP(A3,weapons!A:A,weapons!B:B)</f>
+        <v>Cyclone Slash</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <f aca="false">LOOKUP(A3,weapons!A:A,weapons!C:C)</f>
+        <v>0</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <f aca="false">LOOKUP(A3,weapons!A:A,weapons!D:D)</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="1" t="str">
+        <f aca="false">LOOKUP(A3,weapons!A:A,weapons!E:E)</f>
+        <v>Liltie</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>15</v>
+      <c r="B4" s="1" t="str">
+        <f aca="false">LOOKUP(A4,weapons!A:A,weapons!B:B)</f>
+        <v>Power Bomb</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <f aca="false">LOOKUP(A4,weapons!A:A,weapons!C:C)</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <f aca="false">LOOKUP(A4,weapons!A:A,weapons!D:D)</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="1" t="str">
+        <f aca="false">LOOKUP(A4,weapons!A:A,weapons!E:E)</f>
+        <v>Yuke</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16" s="0" t="s">
-        <v>39</v>
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1" t="str">
+        <f aca="false">LOOKUP(A5,weapons!A:A,weapons!B:B)</f>
+        <v>Aura Blast</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <f aca="false">LOOKUP(A5,weapons!A:A,weapons!C:C)</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <f aca="false">LOOKUP(A5,weapons!A:A,weapons!D:D)</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="1" t="str">
+        <f aca="false">LOOKUP(A5,weapons!A:A,weapons!E:E)</f>
+        <v>Selkie</v>
       </c>
     </row>
   </sheetData>
@@ -475,34 +559,145 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="89.99"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="0" t="s">
+      <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="2"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="0" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B13" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="0" t="s">
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
         <v>43</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -523,33 +718,32 @@
   </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="86.14"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>4</v>
-      </c>
+      <c r="A1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>43</v>
-      </c>
+      <c r="A2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -563,6 +757,55 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H34" activeCellId="0" sqref="H34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.86"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -575,70 +818,24 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="69.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="69.03"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>9</v>
+      <c r="A1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>46</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>43</v>
+      <c r="A2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -666,25 +863,71 @@
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="C1" s="0" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>43</v>
+      <c r="A2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/docs/data.xlsx
+++ b/docs/data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="weapons" sheetId="1" state="visible" r:id="rId2"/>
@@ -16,6 +16,8 @@
     <sheet name="chalice_accessories" sheetId="6" state="visible" r:id="rId7"/>
     <sheet name="edible_accessories" sheetId="7" state="visible" r:id="rId8"/>
     <sheet name="monsters" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="monsters_rva" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="Sheet10" sheetId="10" state="visible" r:id="rId11"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="77">
   <si>
     <t xml:space="preserve">Weapon</t>
   </si>
@@ -197,10 +199,67 @@
     <t xml:space="preserve">If the pressure roll is less than or equal to your Luck stat, don't thicken the miasma.</t>
   </si>
   <si>
-    <t xml:space="preserve">Focus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Racket</t>
+    <t xml:space="preserve">Myrrh Leaf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clear a Status Effect from yourself</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monster</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hearts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Combat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Magic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resistances</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vulnerabilities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abilities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Goblin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vulnerable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lightning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Appears in groups of 3 to 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">asdf</t>
   </si>
 </sst>
 </file>
@@ -210,7 +269,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -232,6 +291,13 @@
       <name val="Arial"/>
       <family val="0"/>
     </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -250,7 +316,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="26">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -274,6 +340,24 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -289,13 +373,19 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="12">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Comma" xfId="15" builtinId="3"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
     <cellStyle name="Currency" xfId="17" builtinId="4"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Pivot Table Category" xfId="20"/>
+    <cellStyle name="Pivot Table Corner" xfId="21"/>
+    <cellStyle name="Pivot Table Field" xfId="22"/>
+    <cellStyle name="Pivot Table Result" xfId="23"/>
+    <cellStyle name="Pivot Table Title" xfId="24"/>
+    <cellStyle name="Pivot Table Value" xfId="25"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -309,6 +399,17 @@
 </styleSheet>
 </file>
 
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Import1" displayName="Import1" ref="A1:D2" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
+  <tableColumns count="4">
+    <tableColumn id="1" name="ID"/>
+    <tableColumn id="2" name="Type"/>
+    <tableColumn id="3" name="Description"/>
+    <tableColumn id="4" name="Monster"/>
+  </tableColumns>
+</table>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -317,7 +418,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G14" activeCellId="0" sqref="G14"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -423,6 +524,66 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="0" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+  <tableParts>
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -431,7 +592,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -562,7 +723,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -718,13 +879,13 @@
   </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="86.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="86.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -764,12 +925,12 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H34" activeCellId="0" sqref="H34"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="27.86"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -813,7 +974,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -857,32 +1018,31 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="29.53"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="C1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="C2" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -900,34 +1060,132 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="12.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="23.41"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>60</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>57</v>
+        <v>66</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="23.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="12.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="23.41"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>16</v>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/docs/data.xlsx
+++ b/docs/data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="weapons" sheetId="1" state="visible" r:id="rId2"/>
@@ -16,8 +16,6 @@
     <sheet name="chalice_accessories" sheetId="6" state="visible" r:id="rId7"/>
     <sheet name="edible_accessories" sheetId="7" state="visible" r:id="rId8"/>
     <sheet name="monsters" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="monsters_rva" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="Sheet10" sheetId="10" state="visible" r:id="rId11"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -29,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="76">
   <si>
     <t xml:space="preserve">Weapon</t>
   </si>
@@ -193,18 +191,45 @@
     <t xml:space="preserve">Rolling a 2 also counts as a Crit.</t>
   </si>
   <si>
+    <t xml:space="preserve">Description</t>
+  </si>
+  <si>
     <t xml:space="preserve">Crystal Feather</t>
   </si>
   <si>
     <t xml:space="preserve">If the pressure roll is less than or equal to your Luck stat, don't thicken the miasma.</t>
   </si>
   <si>
+    <t xml:space="preserve">Piece of bark of a Myrrh tree.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Myrrh Leaf</t>
   </si>
   <si>
     <t xml:space="preserve">Clear a Status Effect from yourself</t>
   </si>
   <si>
+    <t xml:space="preserve">Leaf of a Myrrh tree, glowing with clean air.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phoenix Down</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When you lose your last heart, this revives you at 1 heart.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Magic flower. Looks like a flame and a feather.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strange Liquid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heal all your hearts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rare drink. Probably Myrrh dew and herbs.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Monster</t>
   </si>
   <si>
@@ -230,36 +255,6 @@
   </si>
   <si>
     <t xml:space="preserve">Goblin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Details</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vulnerable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lightning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Appears in groups of 3 to 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">asdf</t>
   </si>
 </sst>
 </file>
@@ -387,27 +382,7 @@
     <cellStyle name="Pivot Table Title" xfId="24"/>
     <cellStyle name="Pivot Table Value" xfId="25"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="00FFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
 </styleSheet>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Import1" displayName="Import1" ref="A1:D2" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
-  <tableColumns count="4">
-    <tableColumn id="1" name="ID"/>
-    <tableColumn id="2" name="Type"/>
-    <tableColumn id="3" name="Description"/>
-    <tableColumn id="4" name="Monster"/>
-  </tableColumns>
-</table>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -418,7 +393,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -521,66 +496,6 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:D3"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="0" t="s">
-        <v>76</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-  <tableParts>
-    <tablePart r:id="rId1"/>
-  </tableParts>
 </worksheet>
 </file>
 
@@ -925,7 +840,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -952,7 +867,7 @@
         <v>53</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -971,10 +886,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -990,13 +905,19 @@
       <c r="B1" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="C1" s="0" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1015,10 +936,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1033,16 +954,42 @@
       <c r="B1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C2" s="1"/>
+        <v>59</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>66</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1074,33 +1021,33 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>3</v>
@@ -1113,79 +1060,6 @@
       </c>
       <c r="E2" s="1" t="n">
         <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="23.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="12.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="23.41"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/docs/data.xlsx
+++ b/docs/data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="weapons" sheetId="1" state="visible" r:id="rId2"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="78">
   <si>
     <t xml:space="preserve">Weapon</t>
   </si>
@@ -183,6 +183,12 @@
   </si>
   <si>
     <t xml:space="preserve">Gain an accessory slot for each point of Unity. Only use these for Food and Edible Accessories.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crystal Shard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You may fuse your attacks and spells with the element of your chalice.</t>
   </si>
   <si>
     <t xml:space="preserve">Winged Belt</t>
@@ -792,10 +798,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -820,6 +826,14 @@
         <v>51</v>
       </c>
       <c r="C2" s="1"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>53</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -861,10 +875,10 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -888,8 +902,8 @@
   </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -906,18 +920,18 @@
         <v>18</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -955,40 +969,40 @@
         <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1021,33 +1035,33 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>3</v>

--- a/docs/data.xlsx
+++ b/docs/data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="weapons" sheetId="1" state="visible" r:id="rId2"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="84">
   <si>
     <t xml:space="preserve">Weapon</t>
   </si>
@@ -195,6 +195,24 @@
   </si>
   <si>
     <t xml:space="preserve">Rolling a 2 also counts as a Crit.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Makeshift Shield</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 Extra Heart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gauntlets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lilties</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plain Helmet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Old Belt</t>
   </si>
   <si>
     <t xml:space="preserve">Description</t>
@@ -800,7 +818,7 @@
   </sheetPr>
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -851,10 +869,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -881,6 +899,50 @@
         <v>55</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="0" t="s">
         <v>7</v>
       </c>
     </row>
@@ -920,18 +982,18 @@
         <v>18</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -969,40 +1031,40 @@
         <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1035,33 +1097,33 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>3</v>
